--- a/biology/Zoologie/Afrogarypus_senegalensis/Afrogarypus_senegalensis.xlsx
+++ b/biology/Zoologie/Afrogarypus_senegalensis/Afrogarypus_senegalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrogarypus senegalensis est une espèce de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, en Guinée, au Liberia, au Ghana et au Cameroun[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, en Guinée, au Liberia, au Ghana et au Cameroun.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 2,10 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 2,10 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus senegalensis par Balzan en 1892. Elle est placée dans le genre Geogarypus par Chamberlin en 1930[3] puis dans le genre Afrogarypus par Harvey en 1986[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus senegalensis par Balzan en 1892. Elle est placée dans le genre Geogarypus par Chamberlin en 1930 puis dans le genre Afrogarypus par Harvey en 1986.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de   et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Sénégal.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Balzan, 1892 : Voyage de M. E. Simon au Venezuela (Décembre 1887 - Avril 1888). 16e mémoire (1) Arachnides. Chernetes (Pseudoscorpiones). Annales de la Société Entomologique de France, vol. 60, p. 497-552 (texte intégral).</t>
         </is>
